--- a/Лаба1/Ч и Б Я Задание 1.xlsx
+++ b/Лаба1/Ч и Б Я Задание 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\projects\VSprojects\Лаба1\Лаба1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E4C1A-B0A7-43F4-95F8-81D688274315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE270239-A28B-43D5-87E8-D980682B6324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,7 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -647,8 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -658,8 +655,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -669,7 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -685,6 +679,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,34 +1028,34 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="16"/>
@@ -1051,32 +1069,32 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="C4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="18"/>
@@ -1093,7 +1111,7 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="18"/>
@@ -1110,7 +1128,7 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1136,10 +1154,10 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
@@ -1162,13 +1180,13 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="16"/>
@@ -1182,21 +1200,21 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="60" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="18"/>
@@ -1212,7 +1230,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="18"/>
@@ -1232,7 +1250,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1248,7 +1266,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="18"/>
@@ -1262,10 +1280,10 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1282,10 +1300,10 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="9"/>
@@ -1299,7 +1317,7 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="18"/>
@@ -1312,10 +1330,10 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1325,10 +1343,10 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1343,7 +1361,7 @@
       <c r="F20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="73" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="9"/>
@@ -1353,10 +1371,10 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1369,10 +1387,10 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1390,10 +1408,10 @@
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
         <v>6</v>
@@ -1407,7 +1425,7 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="18"/>
@@ -1422,10 +1440,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="2"/>
@@ -1441,7 +1459,7 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="18"/>
@@ -1459,7 +1477,7 @@
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="18"/>
@@ -1477,10 +1495,10 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -1548,7 +1566,7 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1628,7 +1646,7 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1720,7 +1738,7 @@
       <c r="N42" s="16"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1736,7 +1754,7 @@
       <c r="N43" s="16"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1768,7 +1786,7 @@
       <c r="N45" s="16"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1783,7 +1801,7 @@
       <c r="N46" s="16"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1798,7 +1816,7 @@
       <c r="N47" s="16"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1898,8 +1916,8 @@
       <c r="H54" s="2"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
       <c r="N54" s="16"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -1942,7 +1960,7 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1953,14 +1971,14 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
       <c r="L59" s="6"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -2013,18 +2031,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1483F46-5E3C-4C73-A792-449D9BD2EBD6}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
-    <col min="4" max="4" width="83.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,33 +2051,33 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="80" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -2072,20 +2090,20 @@
       <c r="C4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="81" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -2093,12 +2111,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="66" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -2112,10 +2130,10 @@
       <c r="B7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -2125,23 +2143,23 @@
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="81" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -2149,32 +2167,32 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="21"/>
       <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="68" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2186,45 +2204,45 @@
       <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="69" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
-      <c r="C14" t="s">
+      <c r="C14" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="81" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="22"/>
-      <c r="C15" t="s">
+      <c r="C15" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="83" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -2238,62 +2256,62 @@
       <c r="B16" s="24">
         <v>100</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="63" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="81" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="13"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="71" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -2301,56 +2319,56 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="83" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="69" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="81" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="64" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2358,88 +2376,88 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="66" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="80" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
       <c r="B27" s="14"/>
       <c r="C27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="71" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
       <c r="B28" s="14"/>
       <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="63" t="s">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="41">
+      <c r="E29" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="40">
         <v>-4</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="62" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2461,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9487517-4A4D-459B-B081-2C6EE1AD188A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,23 +2511,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="70" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>77</v>
       </c>
@@ -2526,36 +2544,36 @@
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="70" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="37" t="s">
+      <c r="C4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>76</v>
       </c>
@@ -2566,26 +2584,26 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="81"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="70" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="21" t="s">
         <v>77</v>
       </c>
@@ -2602,36 +2620,36 @@
       <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="70" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="24">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="37" t="s">
+      <c r="C8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>76</v>
       </c>
@@ -2642,34 +2660,34 @@
         <v>6</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="81"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="70" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="37" t="s">
+      <c r="C10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="21" t="s">
         <v>77</v>
       </c>
@@ -2680,34 +2698,34 @@
         <v>6</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="81"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="70" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="37" t="s">
+      <c r="C12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="21" t="s">
         <v>77</v>
       </c>
@@ -2718,34 +2736,34 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="81"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="70" t="s">
         <v>84</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="37"/>
+      <c r="C14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
@@ -2754,36 +2772,36 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="70" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="24">
         <v>1</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="37"/>
+      <c r="C16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="21" t="s">
         <v>76</v>
       </c>
@@ -2792,33 +2810,33 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
+      <c r="B18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
+      <c r="B19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
+      <c r="B20" s="74"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="80"/>
+      <c r="B21" s="74"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
+      <c r="B22" s="74"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
+      <c r="B24" s="74"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
+      <c r="B25" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Лаба1/Ч и Б Я Задание 1.xlsx
+++ b/Лаба1/Ч и Б Я Задание 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\projects\VSprojects\Лаба1\Лаба1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE270239-A28B-43D5-87E8-D980682B6324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EDC2B4-F649-467B-A4B1-E0EE216AC372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1483F46-5E3C-4C73-A792-449D9BD2EBD6}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
@@ -2479,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9487517-4A4D-459B-B081-2C6EE1AD188A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
